--- a/DebitCredit.xlsx
+++ b/DebitCredit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/altynay_kuchkacheva_ey_com/Documents/Documents/AI-MachineLearning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/altynay_kuchkacheva_ey_com/Documents/Documents/AI-MachineLearning/VS-Code-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56E7D5C-186C-4A61-9372-97BFDB52FFDA}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149C9351-7F0E-4C52-94E0-5708C17EB400}"/>
   <bookViews>
-    <workbookView xWindow="37230" yWindow="390" windowWidth="15510" windowHeight="15105" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
+    <workbookView xWindow="1450" yWindow="0" windowWidth="15240" windowHeight="11370" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>AMZ</t>
   </si>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -691,10 +691,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -704,10 +704,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -717,55 +717,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -776,9 +731,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -789,16 +742,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -971,9 +922,6 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -983,46 +931,58 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1363,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6397BB-30B3-4DAA-92D6-ECB671A93A62}">
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1415,56 +1375,57 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="D3" s="12">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="E3" s="14">
         <f>C3*D3</f>
-        <v>47500</v>
+        <v>75032</v>
       </c>
       <c r="F3" s="6">
         <v>135</v>
       </c>
       <c r="G3" s="47">
         <f>D3-F3</f>
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H3" s="44">
         <f>G3*C3</f>
-        <v>21850</v>
-      </c>
-      <c r="I3" s="56">
-        <v>16330</v>
-      </c>
+        <v>30212</v>
+      </c>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" s="13">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E4" s="15">
         <f>C4*D4</f>
-        <v>63000</v>
+        <v>31650</v>
       </c>
       <c r="F4" s="7">
         <v>434</v>
       </c>
       <c r="G4" s="48">
         <f>D4-F4</f>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H4" s="45">
         <f>G4*C4</f>
-        <v>19600</v>
-      </c>
-      <c r="I4" s="61"/>
+        <v>9950</v>
+      </c>
+      <c r="I4" s="60">
+        <f>E4</f>
+        <v>31650</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
@@ -1474,22 +1435,22 @@
         <v>108</v>
       </c>
       <c r="D5" s="13">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E5" s="15">
         <f>C5*D5</f>
-        <v>36504</v>
+        <v>36612</v>
       </c>
       <c r="F5" s="8">
         <v>254</v>
       </c>
       <c r="G5" s="49">
         <f>D5-F5</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="46">
         <f>G5*C5</f>
-        <v>9072</v>
+        <v>9180</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -1510,13 +1471,13 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="50">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="36"/>
       <c r="H7" s="42">
         <f>H3+H4+H5</f>
-        <v>50522</v>
+        <v>49342</v>
       </c>
       <c r="I7" s="20"/>
     </row>
@@ -1537,7 +1498,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="50">
         <f>E3+E4+E5+E7</f>
-        <v>207004</v>
+        <v>206294</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
@@ -1554,9 +1515,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="52">
-        <v>45000</v>
-      </c>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -1579,7 +1538,7 @@
         <f>D11-C11</f>
         <v>36000</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="59">
         <f>F11-E11</f>
         <v>33000</v>
       </c>
@@ -1602,17 +1561,17 @@
       <c r="D13" s="5"/>
       <c r="E13" s="51">
         <f>E9+E11</f>
-        <v>261004</v>
+        <v>260294</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33">
         <f>H7+H11</f>
-        <v>86522</v>
+        <v>85342</v>
       </c>
       <c r="I13" s="53">
         <f>I4+I11+I10</f>
-        <v>78000</v>
+        <v>64650</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1650,22 +1609,22 @@
         <v>332</v>
       </c>
       <c r="D17" s="12">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E17" s="14">
         <f>C17*D17</f>
-        <v>79680</v>
+        <v>83000</v>
       </c>
       <c r="F17" s="6">
         <v>135</v>
       </c>
       <c r="G17" s="47">
         <f>D17-F17</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H17" s="40">
         <f>G17*C17</f>
-        <v>34860</v>
+        <v>38180</v>
       </c>
       <c r="I17" s="20"/>
     </row>
@@ -1677,26 +1636,26 @@
         <v>50</v>
       </c>
       <c r="D18" s="13">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E18" s="15">
         <f>C18*D18</f>
-        <v>31600</v>
+        <v>31650</v>
       </c>
       <c r="F18" s="7">
         <v>434</v>
       </c>
       <c r="G18" s="48">
         <f>D18-F18</f>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H18" s="41">
         <f>G18*C18</f>
-        <v>9900</v>
+        <v>9950</v>
       </c>
       <c r="I18" s="20">
         <f>E18</f>
-        <v>31600</v>
+        <v>31650</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1707,22 +1666,22 @@
         <v>108</v>
       </c>
       <c r="D19" s="13">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E19" s="15">
         <f>C19*D19</f>
-        <v>36504</v>
+        <v>36612</v>
       </c>
       <c r="F19" s="8">
         <v>254</v>
       </c>
       <c r="G19" s="49">
         <f>D19-F19</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="43">
         <f>G19*C19</f>
-        <v>9072</v>
+        <v>9180</v>
       </c>
       <c r="I19" s="20"/>
     </row>
@@ -1743,13 +1702,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="50">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="36"/>
       <c r="H21" s="42">
         <f>H17+H18+H19</f>
-        <v>53832</v>
+        <v>57310</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -1771,7 +1730,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="50">
         <f>E17+E18+E19+E21</f>
-        <v>207784</v>
+        <v>214262</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
@@ -1813,7 +1772,7 @@
         <f>D25-C25</f>
         <v>36000</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="59">
         <f>F25-E25</f>
         <v>33000</v>
       </c>
@@ -1836,17 +1795,23 @@
       <c r="D27" s="5"/>
       <c r="E27" s="51">
         <f>E23+E25</f>
-        <v>261784</v>
+        <v>268262</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33">
         <f>H21+H25</f>
-        <v>89832</v>
+        <v>93310</v>
       </c>
       <c r="I27" s="53">
         <f>I18+I25+I24</f>
-        <v>109600</v>
+        <v>109650</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E29" s="66">
+        <f>E27-E13</f>
+        <v>7968</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
@@ -1893,12 +1858,12 @@
         <f>C35*D35</f>
         <v>77415.702400000009</v>
       </c>
-      <c r="G35" s="75">
+      <c r="G35" s="61">
         <v>100000</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E37" s="58">
+      <c r="E37" s="66">
         <f>E33+E34+E35</f>
         <v>259658.9964</v>
       </c>
@@ -1927,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="67" t="s">
         <v>0</v>
       </c>
@@ -1954,325 +1919,81 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="64">
-        <v>142</v>
-      </c>
-      <c r="D43" s="65">
+      <c r="C43" s="2">
+        <v>332</v>
+      </c>
+      <c r="D43" s="13">
         <v>250</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="19">
         <f>C43*D43</f>
-        <v>35500</v>
-      </c>
-      <c r="F43" s="6">
+        <v>83000</v>
+      </c>
+      <c r="F43" s="2">
         <v>135</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="74">
         <f>D43-F43</f>
         <v>115</v>
       </c>
-      <c r="H43" s="61">
+      <c r="H43" s="75">
         <f>G43*C43</f>
-        <v>16330</v>
+        <v>38180</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="63">
         <v>50</v>
       </c>
-      <c r="D44" s="13">
-        <v>630</v>
-      </c>
-      <c r="E44" s="15">
+      <c r="D44" s="64">
+        <v>633</v>
+      </c>
+      <c r="E44" s="76">
         <f>C44*D44</f>
-        <v>31500</v>
-      </c>
-      <c r="F44" s="7">
+        <v>31650</v>
+      </c>
+      <c r="F44" s="63">
         <v>434</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="77">
         <f>D44-F44</f>
-        <v>196</v>
-      </c>
-      <c r="H44" s="61">
+        <v>199</v>
+      </c>
+      <c r="H44" s="78">
         <f>G44*C44</f>
-        <v>9800</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="65">
         <v>108</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="64">
         <v>339</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="76">
         <f>C45*D45</f>
         <v>36612</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="63">
         <v>254</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="77">
         <f>D45-F45</f>
         <v>85</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="78">
         <f>G45*C45</f>
         <v>9180</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-    </row>
-    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9">
-        <v>332</v>
-      </c>
-      <c r="D54" s="12">
-        <v>235</v>
-      </c>
-      <c r="E54" s="14">
-        <f>C54*D54</f>
-        <v>78020</v>
-      </c>
-      <c r="F54" s="6">
-        <v>135</v>
-      </c>
-      <c r="G54" s="47">
-        <f>D54-F54</f>
-        <v>100</v>
-      </c>
-      <c r="H54" s="44">
-        <f>G54*C54</f>
-        <v>33200</v>
-      </c>
-      <c r="I54" s="56"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2">
-        <v>50</v>
-      </c>
-      <c r="D55" s="13">
-        <v>632</v>
-      </c>
-      <c r="E55" s="15">
-        <f>C55*D55</f>
-        <v>31600</v>
-      </c>
-      <c r="F55" s="7">
-        <v>434</v>
-      </c>
-      <c r="G55" s="48">
-        <f>D55-F55</f>
-        <v>198</v>
-      </c>
-      <c r="H55" s="45">
-        <f>G55*C55</f>
-        <v>9900</v>
-      </c>
-      <c r="I55" s="60">
-        <f>E55</f>
-        <v>31600</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2">
-        <v>108</v>
-      </c>
-      <c r="D56" s="13">
-        <v>338</v>
-      </c>
-      <c r="E56" s="15">
-        <f>C56*D56</f>
-        <v>36504</v>
-      </c>
-      <c r="F56" s="8">
-        <v>254</v>
-      </c>
-      <c r="G56" s="49">
-        <f>D56-F56</f>
-        <v>84</v>
-      </c>
-      <c r="H56" s="46">
-        <f>G56*C56</f>
-        <v>9072</v>
-      </c>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="50">
-        <v>60000</v>
-      </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="42">
-        <f>H54+H55+H56</f>
-        <v>52172</v>
-      </c>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="E60" s="50">
-        <f>E54+E55+E56+E58</f>
-        <v>206124</v>
-      </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="52">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="19">
-        <v>66000</v>
-      </c>
-      <c r="D62" s="19">
-        <v>102000</v>
-      </c>
-      <c r="E62" s="35">
-        <v>54000</v>
-      </c>
-      <c r="F62" s="54">
-        <v>87000</v>
-      </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="55">
-        <f>D62-C62</f>
-        <v>36000</v>
-      </c>
-      <c r="I62" s="60">
-        <f>F62-E62</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="51">
-        <f>E60+E62</f>
-        <v>260124</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33">
-        <f>H58+H62</f>
-        <v>88172</v>
-      </c>
-      <c r="I64" s="53">
-        <f>I55+I62+I61</f>
-        <v>109600</v>
       </c>
     </row>
   </sheetData>

--- a/DebitCredit.xlsx
+++ b/DebitCredit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/altynay_kuchkacheva_ey_com/Documents/Documents/AI-MachineLearning/VS-Code-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149C9351-7F0E-4C52-94E0-5708C17EB400}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EA3A97-DD0E-4392-8179-27B226DFD415}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="0" windowWidth="15240" windowHeight="11370" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
+    <workbookView minimized="1" xWindow="36495" yWindow="1515" windowWidth="11865" windowHeight="9915" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1326,7 +1326,7 @@
   <dimension ref="B1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1378,22 +1378,22 @@
         <v>332</v>
       </c>
       <c r="D3" s="12">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E3" s="14">
         <f>C3*D3</f>
-        <v>75032</v>
+        <v>76360</v>
       </c>
       <c r="F3" s="6">
         <v>135</v>
       </c>
       <c r="G3" s="47">
         <f>D3-F3</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H3" s="44">
         <f>G3*C3</f>
-        <v>30212</v>
+        <v>31540</v>
       </c>
       <c r="I3" s="56"/>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="42">
         <f>H3+H4+H5</f>
-        <v>49342</v>
+        <v>50670</v>
       </c>
       <c r="I7" s="20"/>
     </row>
@@ -1498,7 +1498,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="50">
         <f>E3+E4+E5+E7</f>
-        <v>206294</v>
+        <v>207622</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
@@ -1561,13 +1561,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="51">
         <f>E9+E11</f>
-        <v>260294</v>
+        <v>261622</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33">
         <f>H7+H11</f>
-        <v>85342</v>
+        <v>86670</v>
       </c>
       <c r="I13" s="53">
         <f>I4+I11+I10</f>
@@ -1811,7 +1811,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E29" s="66">
         <f>E27-E13</f>
-        <v>7968</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">

--- a/DebitCredit.xlsx
+++ b/DebitCredit.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/altynay_kuchkacheva_ey_com/Documents/Documents/AI-MachineLearning/VS-Code-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EA3A97-DD0E-4392-8179-27B226DFD415}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{FBFA0906-EC8F-45A9-AF83-C21EAD3955F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE97E0A-BD87-4D1A-9503-8792DE087B28}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="36495" yWindow="1515" windowWidth="11865" windowHeight="9915" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
+    <workbookView minimized="1" xWindow="730" yWindow="0" windowWidth="15440" windowHeight="12260" xr2:uid="{5C6A0BAE-75FE-4D14-BAF0-2E18297222BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>AMZ</t>
   </si>
@@ -231,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -685,60 +686,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -749,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -949,27 +900,6 @@
     <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -984,6 +914,18 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6397BB-30B3-4DAA-92D6-ECB671A93A62}">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,22 +1551,22 @@
         <v>332</v>
       </c>
       <c r="D17" s="12">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E17" s="14">
         <f>C17*D17</f>
-        <v>83000</v>
+        <v>78020</v>
       </c>
       <c r="F17" s="6">
         <v>135</v>
       </c>
       <c r="G17" s="47">
         <f>D17-F17</f>
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H17" s="40">
         <f>G17*C17</f>
-        <v>38180</v>
+        <v>33200</v>
       </c>
       <c r="I17" s="20"/>
     </row>
@@ -1708,7 +1650,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="42">
         <f>H17+H18+H19</f>
-        <v>57310</v>
+        <v>52330</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -1730,7 +1672,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="50">
         <f>E17+E18+E19+E21</f>
-        <v>214262</v>
+        <v>209282</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
@@ -1795,13 +1737,13 @@
       <c r="D27" s="5"/>
       <c r="E27" s="51">
         <f>E23+E25</f>
-        <v>268262</v>
+        <v>263282</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33">
         <f>H21+H25</f>
-        <v>93310</v>
+        <v>88330</v>
       </c>
       <c r="I27" s="53">
         <f>I18+I25+I24</f>
@@ -1811,7 +1753,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E29" s="66">
         <f>E27-E13</f>
-        <v>6640</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
@@ -1869,52 +1811,52 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="21" t="s">
+    <row r="41" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="65">
         <v>42</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="64">
         <v>235</v>
       </c>
-      <c r="E42" s="70">
-        <f>C42*D42</f>
+      <c r="E42" s="69">
+        <f t="shared" ref="E42:E47" si="0">C42*D42</f>
         <v>9870</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="63">
         <v>135</v>
       </c>
-      <c r="G42" s="72">
-        <f>D42-F42</f>
+      <c r="G42" s="70">
+        <f t="shared" ref="G42:G47" si="1">D42-F42</f>
         <v>100</v>
       </c>
-      <c r="H42" s="73">
-        <f>G42*C42</f>
+      <c r="H42" s="71">
+        <f t="shared" ref="H42:H47" si="2">G42*C42</f>
         <v>4200</v>
       </c>
     </row>
@@ -1923,76 +1865,128 @@
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="D43" s="13">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E43" s="19">
-        <f>C43*D43</f>
-        <v>83000</v>
+        <f t="shared" si="0"/>
+        <v>23000</v>
       </c>
       <c r="F43" s="2">
         <v>135</v>
       </c>
-      <c r="G43" s="74">
-        <f>D43-F43</f>
-        <v>115</v>
-      </c>
-      <c r="H43" s="75">
-        <f>G43*C43</f>
-        <v>38180</v>
+      <c r="G43" s="67">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H43" s="68">
+        <f t="shared" si="2"/>
+        <v>9500</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>100</v>
+      </c>
+      <c r="D44" s="13">
+        <v>235</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" si="0"/>
+        <v>23500</v>
+      </c>
+      <c r="F44" s="2">
+        <v>135</v>
+      </c>
+      <c r="G44" s="67">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H44" s="68">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>102</v>
+      </c>
+      <c r="D45" s="13">
+        <v>240</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="0"/>
+        <v>24480</v>
+      </c>
+      <c r="F45" s="2">
+        <v>135</v>
+      </c>
+      <c r="G45" s="67">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="H45" s="68">
+        <f t="shared" si="2"/>
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C46" s="63">
         <v>50</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D46" s="64">
         <v>633</v>
       </c>
-      <c r="E44" s="76">
-        <f>C44*D44</f>
+      <c r="E46" s="69">
+        <f t="shared" si="0"/>
         <v>31650</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F46" s="63">
         <v>434</v>
       </c>
-      <c r="G44" s="77">
-        <f>D44-F44</f>
+      <c r="G46" s="70">
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="H44" s="78">
-        <f>G44*C44</f>
+      <c r="H46" s="71">
+        <f t="shared" si="2"/>
         <v>9950</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="62" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C47" s="65">
         <v>108</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D47" s="64">
         <v>339</v>
       </c>
-      <c r="E45" s="76">
-        <f>C45*D45</f>
+      <c r="E47" s="69">
+        <f t="shared" si="0"/>
         <v>36612</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F47" s="63">
         <v>254</v>
       </c>
-      <c r="G45" s="77">
-        <f>D45-F45</f>
+      <c r="G47" s="70">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="H45" s="78">
-        <f>G45*C45</f>
+      <c r="H47" s="71">
+        <f t="shared" si="2"/>
         <v>9180</v>
       </c>
     </row>
